--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779871.740890297</v>
+        <v>1705539.914532003</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301853.0035786782</v>
+        <v>301853.003578678</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15609235.68401653</v>
+        <v>15609235.68401652</v>
       </c>
     </row>
     <row r="9">
@@ -1381,61 +1381,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>151.8239468846812</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>20.1499838649903</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="H11" t="n">
+      <c r="V11" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="J11" t="n">
-        <v>24.50765323923466</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>156.1816162589255</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S12" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.194823028969</v>
+        <v>34.79506572383002</v>
       </c>
       <c r="U12" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>53.09543380873295</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1612,70 +1612,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>156.1816162589255</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>20.1499838649903</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="H14" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="I14" t="n">
-        <v>176.3316001239158</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.76233746808903</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>100.3110001810774</v>
+        <v>53.09543380873303</v>
       </c>
       <c r="J15" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.33810557658778</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.777489009342446</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>156.1816162589255</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>20.1499838649903</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="H17" t="n">
+      <c r="Y17" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1979,16 +1979,16 @@
         <v>200.194823028969</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>177.4809375161094</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2043,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>22.11559458593022</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>23.41347583277423</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R20" t="n">
-        <v>152.9181242911416</v>
+        <v>131.6739630196908</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>16.2308671221516</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>110.2894990969568</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.11559458593022</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R23" t="n">
         <v>152.9181242911416</v>
       </c>
       <c r="S23" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="V23" t="n">
-        <v>23.41347583277423</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.263491967783898</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>65.2774994566675</v>
+        <v>71.34474646194563</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.11559458593026</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,11 +2554,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>151.8239468846812</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V26" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="X27" t="n">
-        <v>51.94609641653939</v>
-      </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
     </row>
     <row r="28">
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>22.11559458593022</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>152.9181242911416</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="W29" t="n">
+        <v>23.41347583277444</v>
+      </c>
+      <c r="X29" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>176.3316001239158</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>84.62081250950968</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.11559458593022</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="H32" t="n">
-        <v>131.673963019691</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>24.50765323923466</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="X32" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>76.02059994283842</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>132.4394074502229</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3225,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.263491967783883</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>152.9181242911416</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="T35" t="n">
-        <v>156.1816162589255</v>
-      </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="V35" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,76 +3344,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>172.0989423795122</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>160.5316703761085</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>43.89581039726415</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X36" t="n">
-        <v>188.5136657718504</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,46 +3444,46 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>22.11559458593022</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="V38" t="n">
-        <v>156.1816162589255</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.053120474247531</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>78.15657132018444</v>
       </c>
       <c r="T39" t="n">
         <v>200.194823028969</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>200.194823028969</v>
+        <v>156.1816162589255</v>
       </c>
       <c r="D41" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="E41" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.263491967783883</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R41" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.5316703761085</v>
+        <v>2.347251998591907</v>
       </c>
       <c r="H42" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.2718307611881</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
     </row>
     <row r="43">
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>131.6739630196908</v>
+        <v>200.194823028969</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,58 +3991,58 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>176.3316001239158</v>
+      </c>
+      <c r="V44" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="W44" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="J44" t="n">
-        <v>24.50765323923466</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>20.1499838649903</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>43.89581039726411</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>200.194823028969</v>
@@ -4121,7 +4121,7 @@
         <v>200.194823028969</v>
       </c>
       <c r="X45" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.882134867989901</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.777489009342446</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C11" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D11" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E11" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F11" t="n">
-        <v>647.4217700101374</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G11" t="n">
-        <v>445.2047770515828</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H11" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I11" t="n">
-        <v>40.77079113447374</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J11" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K11" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L11" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M11" t="n">
         <v>383.8129092844018</v>
@@ -5062,31 +5062,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q11" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="R11" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="S11" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="T11" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="U11" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017756</v>
       </c>
       <c r="V11" t="n">
-        <v>800.7792921158759</v>
+        <v>375.991787143221</v>
       </c>
       <c r="W11" t="n">
-        <v>800.7792921158759</v>
+        <v>173.7747941846665</v>
       </c>
       <c r="X11" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.01558584231752</v>
+        <v>450.0789620025013</v>
       </c>
       <c r="C12" t="n">
-        <v>16.01558584231752</v>
+        <v>450.0789620025013</v>
       </c>
       <c r="D12" t="n">
-        <v>16.01558584231752</v>
+        <v>450.0789620025013</v>
       </c>
       <c r="E12" t="n">
-        <v>16.01558584231752</v>
+        <v>450.0789620025013</v>
       </c>
       <c r="F12" t="n">
-        <v>16.01558584231752</v>
+        <v>450.0789620025013</v>
       </c>
       <c r="G12" t="n">
-        <v>16.01558584231752</v>
+        <v>287.9257596023917</v>
       </c>
       <c r="H12" t="n">
-        <v>16.01558584231752</v>
+        <v>153.498755247415</v>
       </c>
       <c r="I12" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="J12" t="n">
         <v>16.01558584231752</v>
@@ -5126,19 +5126,19 @@
         <v>82.34666374468729</v>
       </c>
       <c r="L12" t="n">
-        <v>157.967375079046</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M12" t="n">
-        <v>356.1602498777253</v>
+        <v>441.397857320185</v>
       </c>
       <c r="N12" t="n">
-        <v>484.6350314517288</v>
+        <v>593.8023308931718</v>
       </c>
       <c r="O12" t="n">
-        <v>671.0480675097801</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P12" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q12" t="n">
         <v>800.7792921158759</v>
@@ -5147,25 +5147,25 @@
         <v>675.1373691791321</v>
       </c>
       <c r="S12" t="n">
-        <v>474.0813230813791</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="T12" t="n">
-        <v>271.8643301228245</v>
+        <v>639.9908381449603</v>
       </c>
       <c r="U12" t="n">
-        <v>69.64733716427</v>
+        <v>639.9908381449603</v>
       </c>
       <c r="V12" t="n">
-        <v>16.01558584231752</v>
+        <v>639.9908381449603</v>
       </c>
       <c r="W12" t="n">
-        <v>16.01558584231752</v>
+        <v>639.9908381449603</v>
       </c>
       <c r="X12" t="n">
-        <v>16.01558584231752</v>
+        <v>639.9908381449603</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.01558584231752</v>
+        <v>639.9908381449603</v>
       </c>
     </row>
     <row r="13">
@@ -5214,10 +5214,10 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O13" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P13" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q13" t="n">
         <v>16.01558584231752</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.7792921158759</v>
+        <v>375.9917871432212</v>
       </c>
       <c r="C14" t="n">
-        <v>800.7792921158759</v>
+        <v>375.9917871432212</v>
       </c>
       <c r="D14" t="n">
-        <v>800.7792921158759</v>
+        <v>218.2325788008721</v>
       </c>
       <c r="E14" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F14" t="n">
-        <v>598.5622991573214</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G14" t="n">
-        <v>396.3453061987668</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I14" t="n">
         <v>16.01558584231752</v>
@@ -5281,49 +5281,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K14" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812815</v>
       </c>
       <c r="L14" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245968</v>
       </c>
       <c r="M14" t="n">
-        <v>383.8129092844018</v>
+        <v>383.8129092844021</v>
       </c>
       <c r="N14" t="n">
-        <v>572.7990561059416</v>
+        <v>572.7990561059419</v>
       </c>
       <c r="O14" t="n">
-        <v>723.4688780473045</v>
+        <v>723.4688780473048</v>
       </c>
       <c r="P14" t="n">
-        <v>800.7792921158759</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="Q14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="R14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="S14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="T14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="U14" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017758</v>
       </c>
       <c r="V14" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017758</v>
       </c>
       <c r="W14" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017758</v>
       </c>
       <c r="X14" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017758</v>
       </c>
       <c r="Y14" t="n">
-        <v>800.7792921158759</v>
+        <v>375.9917871432212</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="C15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="D15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="E15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="F15" t="n">
-        <v>450.0789620025013</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="G15" t="n">
-        <v>287.9257596023917</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="H15" t="n">
-        <v>153.498755247415</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17451264026615</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J15" t="n">
         <v>16.01558584231752</v>
@@ -5366,43 +5366,43 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M15" t="n">
-        <v>294.2292951126623</v>
+        <v>294.2292951126625</v>
       </c>
       <c r="N15" t="n">
-        <v>492.4221699113416</v>
+        <v>492.4221699113418</v>
       </c>
       <c r="O15" t="n">
-        <v>678.835205969393</v>
+        <v>678.8352059693932</v>
       </c>
       <c r="P15" t="n">
-        <v>800.7792921158759</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="Q15" t="n">
-        <v>800.7792921158759</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="R15" t="n">
-        <v>675.1373691791321</v>
+        <v>675.1373691791323</v>
       </c>
       <c r="S15" t="n">
-        <v>474.0813230813791</v>
+        <v>474.0813230813793</v>
       </c>
       <c r="T15" t="n">
-        <v>474.0813230813791</v>
+        <v>474.0813230813793</v>
       </c>
       <c r="U15" t="n">
-        <v>474.0813230813791</v>
+        <v>474.0813230813793</v>
       </c>
       <c r="V15" t="n">
-        <v>474.0813230813791</v>
+        <v>271.8643301228247</v>
       </c>
       <c r="W15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="X15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
       <c r="Y15" t="n">
-        <v>474.0813230813791</v>
+        <v>69.64733716427008</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K16" t="n">
-        <v>16.80092827599676</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L16" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="M16" t="n">
-        <v>21.82328755457459</v>
+        <v>21.8232875545746</v>
       </c>
       <c r="N16" t="n">
-        <v>38.35457027255007</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="O16" t="n">
-        <v>38.35457027255007</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="P16" t="n">
-        <v>38.35457027255007</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.35457027255007</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="R16" t="n">
-        <v>38.35457027255007</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="S16" t="n">
-        <v>38.35457027255007</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="T16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="U16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>800.7792921158762</v>
+        <v>173.7747941846666</v>
       </c>
       <c r="C17" t="n">
-        <v>800.7792921158762</v>
+        <v>173.7747941846666</v>
       </c>
       <c r="D17" t="n">
-        <v>800.7792921158762</v>
+        <v>173.7747941846666</v>
       </c>
       <c r="E17" t="n">
-        <v>622.6665647179814</v>
+        <v>173.7747941846666</v>
       </c>
       <c r="F17" t="n">
-        <v>420.4495717594268</v>
+        <v>173.7747941846666</v>
       </c>
       <c r="G17" t="n">
-        <v>218.2325788008721</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H17" t="n">
         <v>16.01558584231752</v>
@@ -5518,13 +5518,13 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K17" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812809</v>
       </c>
       <c r="L17" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245967</v>
       </c>
       <c r="M17" t="n">
-        <v>383.8129092844021</v>
+        <v>383.8129092844022</v>
       </c>
       <c r="N17" t="n">
         <v>572.7990561059419</v>
@@ -5536,31 +5536,31 @@
         <v>800.7792921158762</v>
       </c>
       <c r="Q17" t="n">
-        <v>800.7792921158762</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="R17" t="n">
-        <v>800.7792921158762</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="S17" t="n">
-        <v>800.7792921158762</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="T17" t="n">
-        <v>800.7792921158762</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="U17" t="n">
-        <v>800.7792921158762</v>
+        <v>780.4257730603304</v>
       </c>
       <c r="V17" t="n">
-        <v>800.7792921158762</v>
+        <v>578.2087801017758</v>
       </c>
       <c r="W17" t="n">
-        <v>800.7792921158762</v>
+        <v>578.2087801017758</v>
       </c>
       <c r="X17" t="n">
-        <v>800.7792921158762</v>
+        <v>375.9917871432212</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.7792921158762</v>
+        <v>173.7747941846666</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>243.2049825215057</v>
       </c>
       <c r="M18" t="n">
-        <v>363.9473883373383</v>
+        <v>356.1602498777255</v>
       </c>
       <c r="N18" t="n">
-        <v>492.4221699113418</v>
+        <v>484.635031451729</v>
       </c>
       <c r="O18" t="n">
-        <v>678.8352059693932</v>
+        <v>671.0480675097804</v>
       </c>
       <c r="P18" t="n">
-        <v>800.7792921158762</v>
+        <v>792.9921536562633</v>
       </c>
       <c r="Q18" t="n">
         <v>800.7792921158762</v>
@@ -5627,13 +5627,13 @@
         <v>397.5062530595686</v>
       </c>
       <c r="U18" t="n">
+        <v>397.5062530595686</v>
+      </c>
+      <c r="V18" t="n">
+        <v>397.5062530595686</v>
+      </c>
+      <c r="W18" t="n">
         <v>195.289260101014</v>
-      </c>
-      <c r="V18" t="n">
-        <v>16.01558584231752</v>
-      </c>
-      <c r="W18" t="n">
-        <v>16.01558584231752</v>
       </c>
       <c r="X18" t="n">
         <v>16.01558584231752</v>
@@ -5691,16 +5691,16 @@
         <v>38.35457027255008</v>
       </c>
       <c r="P19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="R19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="S19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255008</v>
       </c>
       <c r="T19" t="n">
         <v>16.01558584231752</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="C20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="D20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="E20" t="n">
-        <v>39.66556143097836</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="F20" t="n">
-        <v>39.66556143097836</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="G20" t="n">
-        <v>16.01558584231752</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="H20" t="n">
-        <v>16.01558584231752</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="I20" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="J20" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K20" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L20" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M20" t="n">
         <v>383.8129092844018</v>
@@ -5773,31 +5773,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q20" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="R20" t="n">
-        <v>646.316540306642</v>
+        <v>647.4217700101374</v>
       </c>
       <c r="S20" t="n">
-        <v>444.0995473480874</v>
+        <v>647.4217700101374</v>
       </c>
       <c r="T20" t="n">
-        <v>444.0995473480874</v>
+        <v>647.4217700101374</v>
       </c>
       <c r="U20" t="n">
-        <v>444.0995473480874</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="V20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="W20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="X20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.8825543895329</v>
+        <v>445.2047770515828</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>689.3757576745054</v>
+        <v>397.5062530595684</v>
       </c>
       <c r="C21" t="n">
-        <v>689.3757576745054</v>
+        <v>397.5062530595684</v>
       </c>
       <c r="D21" t="n">
-        <v>515.5384421396445</v>
+        <v>397.5062530595684</v>
       </c>
       <c r="E21" t="n">
-        <v>326.1843559804497</v>
+        <v>208.1521669003736</v>
       </c>
       <c r="F21" t="n">
-        <v>150.4425901972942</v>
+        <v>32.41040111721813</v>
       </c>
       <c r="G21" t="n">
-        <v>150.4425901972942</v>
+        <v>32.41040111721813</v>
       </c>
       <c r="H21" t="n">
-        <v>16.01558584231752</v>
+        <v>32.41040111721813</v>
       </c>
       <c r="I21" t="n">
-        <v>16.01558584231752</v>
+        <v>32.41040111721813</v>
       </c>
       <c r="J21" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K21" t="n">
-        <v>82.34666374468729</v>
+        <v>17.15041818508436</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2049825215057</v>
+        <v>178.0087369619028</v>
       </c>
       <c r="M21" t="n">
-        <v>441.397857320185</v>
+        <v>376.2016117605821</v>
       </c>
       <c r="N21" t="n">
-        <v>569.8726388941885</v>
+        <v>574.3944865592614</v>
       </c>
       <c r="O21" t="n">
-        <v>671.0480675097801</v>
+        <v>760.8075226173128</v>
       </c>
       <c r="P21" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q21" t="n">
         <v>800.7792921158759</v>
@@ -5858,25 +5858,25 @@
         <v>800.7792921158759</v>
       </c>
       <c r="S21" t="n">
-        <v>689.3757576745054</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="T21" t="n">
-        <v>689.3757576745054</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="U21" t="n">
-        <v>689.3757576745054</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="V21" t="n">
-        <v>689.3757576745054</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="W21" t="n">
-        <v>689.3757576745054</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="X21" t="n">
-        <v>689.3757576745054</v>
+        <v>397.5062530595684</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.3757576745054</v>
+        <v>397.5062530595684</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>38.35457027255007</v>
       </c>
       <c r="R22" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="S22" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="T22" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="U22" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V22" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W22" t="n">
         <v>16.01558584231752</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="C23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="D23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="E23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="F23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="G23" t="n">
         <v>16.01558584231752</v>
@@ -6010,31 +6010,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q23" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="R23" t="n">
-        <v>646.316540306642</v>
+        <v>625.9630212510962</v>
       </c>
       <c r="S23" t="n">
-        <v>444.0995473480874</v>
+        <v>625.9630212510962</v>
       </c>
       <c r="T23" t="n">
-        <v>241.8825543895329</v>
+        <v>625.9630212510962</v>
       </c>
       <c r="U23" t="n">
-        <v>39.66556143097836</v>
+        <v>423.7460282925416</v>
       </c>
       <c r="V23" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="W23" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="X23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>284.16944693892</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="C24" t="n">
-        <v>81.9524539803655</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="D24" t="n">
-        <v>81.9524539803655</v>
+        <v>222.507990663906</v>
       </c>
       <c r="E24" t="n">
-        <v>81.9524539803655</v>
+        <v>222.507990663906</v>
       </c>
       <c r="F24" t="n">
-        <v>81.9524539803655</v>
+        <v>222.507990663906</v>
       </c>
       <c r="G24" t="n">
-        <v>16.01558584231752</v>
+        <v>150.4425901972942</v>
       </c>
       <c r="H24" t="n">
         <v>16.01558584231752</v>
@@ -6071,19 +6071,19 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K24" t="n">
-        <v>16.01558584231752</v>
+        <v>17.15041818508436</v>
       </c>
       <c r="L24" t="n">
-        <v>176.8739046191359</v>
+        <v>178.0087369619028</v>
       </c>
       <c r="M24" t="n">
-        <v>375.0667794178153</v>
+        <v>376.2016117605821</v>
       </c>
       <c r="N24" t="n">
-        <v>573.2596542164946</v>
+        <v>574.3944865592614</v>
       </c>
       <c r="O24" t="n">
-        <v>759.672690274546</v>
+        <v>760.8075226173128</v>
       </c>
       <c r="P24" t="n">
         <v>800.7792921158759</v>
@@ -6092,28 +6092,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R24" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S24" t="n">
-        <v>474.0813230813791</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T24" t="n">
-        <v>474.0813230813791</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U24" t="n">
-        <v>474.0813230813791</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V24" t="n">
-        <v>474.0813230813791</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="W24" t="n">
-        <v>474.0813230813791</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="X24" t="n">
-        <v>474.0813230813791</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="Y24" t="n">
-        <v>474.0813230813791</v>
+        <v>598.5622991573214</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="M25" t="n">
-        <v>784.2480093979004</v>
+        <v>21.82328755457459</v>
       </c>
       <c r="N25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="O25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.01558584231752</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="C26" t="n">
-        <v>16.01558584231752</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="D26" t="n">
-        <v>16.01558584231752</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="E26" t="n">
-        <v>16.01558584231752</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="F26" t="n">
-        <v>16.01558584231752</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="G26" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="H26" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="I26" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="J26" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K26" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812815</v>
       </c>
       <c r="L26" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245968</v>
       </c>
       <c r="M26" t="n">
         <v>383.8129092844019</v>
@@ -6253,25 +6253,25 @@
         <v>800.7792921158759</v>
       </c>
       <c r="S26" t="n">
-        <v>622.6665647179811</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T26" t="n">
-        <v>622.6665647179811</v>
+        <v>647.4217700101374</v>
       </c>
       <c r="U26" t="n">
-        <v>622.6665647179811</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="V26" t="n">
-        <v>420.4495717594266</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="W26" t="n">
-        <v>420.4495717594266</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="X26" t="n">
-        <v>420.4495717594266</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="Y26" t="n">
-        <v>218.232578800872</v>
+        <v>445.2047770515828</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M27" t="n">
-        <v>375.0667794178153</v>
+        <v>363.9473883373381</v>
       </c>
       <c r="N27" t="n">
-        <v>573.2596542164946</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O27" t="n">
-        <v>759.672690274546</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P27" t="n">
         <v>800.7792921158759</v>
@@ -6329,25 +6329,25 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R27" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S27" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T27" t="n">
-        <v>472.9203762205775</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U27" t="n">
-        <v>472.9203762205775</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="V27" t="n">
-        <v>270.703383262023</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="W27" t="n">
-        <v>68.48639030346843</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X27" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="Y27" t="n">
         <v>16.01558584231752</v>
@@ -6414,10 +6414,10 @@
         <v>38.35457027255007</v>
       </c>
       <c r="T28" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="U28" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V28" t="n">
         <v>16.01558584231752</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>420.4495717594266</v>
+        <v>218.232578800872</v>
       </c>
       <c r="C29" t="n">
-        <v>420.4495717594266</v>
+        <v>218.232578800872</v>
       </c>
       <c r="D29" t="n">
         <v>218.232578800872</v>
@@ -6457,7 +6457,7 @@
         <v>218.232578800872</v>
       </c>
       <c r="H29" t="n">
-        <v>218.232578800872</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I29" t="n">
         <v>16.01558584231752</v>
@@ -6466,49 +6466,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K29" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L29" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M29" t="n">
-        <v>383.8129092844019</v>
+        <v>383.8129092844021</v>
       </c>
       <c r="N29" t="n">
-        <v>572.7990561059416</v>
+        <v>572.7990561059419</v>
       </c>
       <c r="O29" t="n">
-        <v>723.4688780473045</v>
+        <v>723.4688780473048</v>
       </c>
       <c r="P29" t="n">
-        <v>800.7792921158759</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="Q29" t="n">
-        <v>800.7792921158759</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="R29" t="n">
-        <v>800.7792921158759</v>
+        <v>646.3165403066422</v>
       </c>
       <c r="S29" t="n">
-        <v>800.7792921158759</v>
+        <v>646.3165403066422</v>
       </c>
       <c r="T29" t="n">
-        <v>800.7792921158759</v>
+        <v>646.3165403066422</v>
       </c>
       <c r="U29" t="n">
-        <v>800.7792921158759</v>
+        <v>646.3165403066422</v>
       </c>
       <c r="V29" t="n">
-        <v>800.7792921158759</v>
+        <v>444.0995473480876</v>
       </c>
       <c r="W29" t="n">
-        <v>622.6665647179811</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="X29" t="n">
-        <v>622.6665647179811</v>
+        <v>218.232578800872</v>
       </c>
       <c r="Y29" t="n">
-        <v>622.6665647179811</v>
+        <v>218.232578800872</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>675.1373691791321</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C30" t="n">
-        <v>675.1373691791321</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D30" t="n">
-        <v>675.1373691791321</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E30" t="n">
-        <v>589.6618009877081</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F30" t="n">
-        <v>413.9200352045527</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G30" t="n">
-        <v>251.7668328044431</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H30" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I30" t="n">
         <v>16.01558584231752</v>
@@ -6545,49 +6545,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K30" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L30" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M30" t="n">
-        <v>375.0667794178153</v>
+        <v>441.397857320185</v>
       </c>
       <c r="N30" t="n">
-        <v>573.2596542164946</v>
+        <v>569.8726388941885</v>
       </c>
       <c r="O30" t="n">
-        <v>759.672690274546</v>
+        <v>756.2856749522399</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7792921158759</v>
+        <v>796.2574444508031</v>
       </c>
       <c r="Q30" t="n">
         <v>800.7792921158759</v>
       </c>
       <c r="R30" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S30" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T30" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U30" t="n">
-        <v>675.1373691791321</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="V30" t="n">
-        <v>675.1373691791321</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="W30" t="n">
-        <v>675.1373691791321</v>
+        <v>218.232578800872</v>
       </c>
       <c r="X30" t="n">
-        <v>675.1373691791321</v>
+        <v>218.232578800872</v>
       </c>
       <c r="Y30" t="n">
-        <v>675.1373691791321</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G31" t="n">
         <v>16.01558584231752</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.7747941846667</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="C32" t="n">
-        <v>173.7747941846667</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="D32" t="n">
-        <v>173.7747941846667</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="E32" t="n">
-        <v>173.7747941846667</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="F32" t="n">
-        <v>173.7747941846667</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="G32" t="n">
-        <v>173.7747941846667</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="H32" t="n">
-        <v>40.77079113447374</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I32" t="n">
-        <v>40.77079113447374</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J32" t="n">
         <v>16.01558584231752</v>
@@ -6721,31 +6721,31 @@
         <v>800.7792921158762</v>
       </c>
       <c r="Q32" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="R32" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="S32" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="T32" t="n">
-        <v>578.2087801017758</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="U32" t="n">
-        <v>578.2087801017758</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V32" t="n">
-        <v>578.2087801017758</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="W32" t="n">
-        <v>375.9917871432212</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="X32" t="n">
-        <v>173.7747941846667</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.7747941846667</v>
+        <v>598.5622991573214</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.3398284494664</v>
+        <v>541.3601899364827</v>
       </c>
       <c r="C33" t="n">
-        <v>117.3398284494664</v>
+        <v>541.3601899364827</v>
       </c>
       <c r="D33" t="n">
-        <v>117.3398284494664</v>
+        <v>367.5228744016218</v>
       </c>
       <c r="E33" t="n">
-        <v>117.3398284494664</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="F33" t="n">
-        <v>117.3398284494664</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="G33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I33" t="n">
         <v>16.01558584231752</v>
@@ -6782,19 +6782,19 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K33" t="n">
-        <v>16.01558584231752</v>
+        <v>22.84526795866212</v>
       </c>
       <c r="L33" t="n">
-        <v>176.8739046191359</v>
+        <v>88.24928185437014</v>
       </c>
       <c r="M33" t="n">
-        <v>375.0667794178153</v>
+        <v>286.4421566530494</v>
       </c>
       <c r="N33" t="n">
-        <v>503.5415609918188</v>
+        <v>484.6350314517288</v>
       </c>
       <c r="O33" t="n">
-        <v>689.9545970498701</v>
+        <v>671.0480675097801</v>
       </c>
       <c r="P33" t="n">
         <v>792.9921536562631</v>
@@ -6803,28 +6803,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7792921158759</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7792921158759</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="T33" t="n">
-        <v>598.5622991573214</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="U33" t="n">
-        <v>521.7738143665755</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="V33" t="n">
-        <v>521.7738143665755</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="W33" t="n">
-        <v>319.5568214080209</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="X33" t="n">
-        <v>117.3398284494664</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="Y33" t="n">
-        <v>117.3398284494664</v>
+        <v>541.3601899364827</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="C34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="D34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="E34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="F34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="G34" t="n">
         <v>16.01558584231752</v>
@@ -6873,37 +6873,37 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O34" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="C35" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="D35" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="E35" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="F35" t="n">
-        <v>16.01558584231752</v>
+        <v>19.31204237543255</v>
       </c>
       <c r="G35" t="n">
-        <v>16.01558584231752</v>
+        <v>19.31204237543255</v>
       </c>
       <c r="H35" t="n">
-        <v>16.01558584231752</v>
+        <v>19.31204237543255</v>
       </c>
       <c r="I35" t="n">
-        <v>16.01558584231752</v>
+        <v>19.31204237543255</v>
       </c>
       <c r="J35" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K35" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812815</v>
       </c>
       <c r="L35" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245968</v>
       </c>
       <c r="M35" t="n">
         <v>383.8129092844018</v>
@@ -6961,28 +6961,28 @@
         <v>780.4257730603301</v>
       </c>
       <c r="R35" t="n">
-        <v>780.4257730603301</v>
+        <v>625.9630212510962</v>
       </c>
       <c r="S35" t="n">
-        <v>578.2087801017756</v>
+        <v>625.9630212510962</v>
       </c>
       <c r="T35" t="n">
-        <v>420.4495717594266</v>
+        <v>423.7460282925416</v>
       </c>
       <c r="U35" t="n">
-        <v>218.232578800872</v>
+        <v>423.7460282925416</v>
       </c>
       <c r="V35" t="n">
-        <v>16.01558584231752</v>
+        <v>423.7460282925416</v>
       </c>
       <c r="W35" t="n">
-        <v>16.01558584231752</v>
+        <v>423.7460282925416</v>
       </c>
       <c r="X35" t="n">
-        <v>16.01558584231752</v>
+        <v>423.7460282925416</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.01558584231752</v>
+        <v>221.5290353339871</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>218.232578800872</v>
+        <v>352.0061037772879</v>
       </c>
       <c r="C36" t="n">
-        <v>16.01558584231752</v>
+        <v>352.0061037772879</v>
       </c>
       <c r="D36" t="n">
-        <v>16.01558584231752</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="E36" t="n">
-        <v>16.01558584231752</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="F36" t="n">
-        <v>16.01558584231752</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="G36" t="n">
         <v>16.01558584231752</v>
@@ -7019,19 +7019,19 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K36" t="n">
-        <v>17.15041818508436</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L36" t="n">
-        <v>178.0087369619028</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M36" t="n">
-        <v>376.2016117605821</v>
+        <v>363.9473883373381</v>
       </c>
       <c r="N36" t="n">
-        <v>574.3944865592614</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O36" t="n">
-        <v>760.8075226173128</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P36" t="n">
         <v>800.7792921158759</v>
@@ -7046,22 +7046,22 @@
         <v>800.7792921158759</v>
       </c>
       <c r="T36" t="n">
-        <v>800.7792921158759</v>
+        <v>756.440089694397</v>
       </c>
       <c r="U36" t="n">
-        <v>800.7792921158759</v>
+        <v>756.440089694397</v>
       </c>
       <c r="V36" t="n">
-        <v>800.7792921158759</v>
+        <v>554.2230967358424</v>
       </c>
       <c r="W36" t="n">
-        <v>800.7792921158759</v>
+        <v>352.0061037772879</v>
       </c>
       <c r="X36" t="n">
-        <v>610.3614479018856</v>
+        <v>352.0061037772879</v>
       </c>
       <c r="Y36" t="n">
-        <v>408.1444549433311</v>
+        <v>352.0061037772879</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I37" t="n">
         <v>16.01558584231752</v>
@@ -7131,16 +7131,16 @@
         <v>38.35457027255007</v>
       </c>
       <c r="V37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="C38" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="D38" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="E38" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="F38" t="n">
         <v>16.01558584231752</v>
@@ -7195,31 +7195,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q38" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R38" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S38" t="n">
-        <v>578.2087801017756</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T38" t="n">
-        <v>375.991787143221</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U38" t="n">
-        <v>173.7747941846665</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="V38" t="n">
-        <v>16.01558584231752</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="W38" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X38" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>408.6504230148623</v>
+        <v>191.757351625473</v>
       </c>
       <c r="C39" t="n">
-        <v>206.4334300563078</v>
+        <v>191.757351625473</v>
       </c>
       <c r="D39" t="n">
-        <v>206.4334300563078</v>
+        <v>191.757351625473</v>
       </c>
       <c r="E39" t="n">
-        <v>17.07934389711301</v>
+        <v>191.757351625473</v>
       </c>
       <c r="F39" t="n">
-        <v>17.07934389711301</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G39" t="n">
-        <v>17.07934389711301</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H39" t="n">
-        <v>17.07934389711301</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I39" t="n">
         <v>16.01558584231752</v>
@@ -7256,13 +7256,13 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K39" t="n">
-        <v>82.34666374468729</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M39" t="n">
-        <v>347.8378015316988</v>
+        <v>356.1602498777253</v>
       </c>
       <c r="N39" t="n">
         <v>484.6350314517288</v>
@@ -7277,28 +7277,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R39" t="n">
-        <v>800.7792921158759</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="S39" t="n">
-        <v>800.7792921158759</v>
+        <v>596.1913375425821</v>
       </c>
       <c r="T39" t="n">
-        <v>598.5622991573214</v>
+        <v>393.9743445840276</v>
       </c>
       <c r="U39" t="n">
-        <v>598.5622991573214</v>
+        <v>393.9743445840276</v>
       </c>
       <c r="V39" t="n">
-        <v>598.5622991573214</v>
+        <v>393.9743445840276</v>
       </c>
       <c r="W39" t="n">
-        <v>598.5622991573214</v>
+        <v>191.757351625473</v>
       </c>
       <c r="X39" t="n">
-        <v>598.5622991573214</v>
+        <v>191.757351625473</v>
       </c>
       <c r="Y39" t="n">
-        <v>598.5622991573214</v>
+        <v>191.757351625473</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C40" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D40" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="M40" t="n">
-        <v>784.2480093979004</v>
+        <v>21.82328755457459</v>
       </c>
       <c r="N40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="O40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>625.9630212510962</v>
+        <v>375.991787143221</v>
       </c>
       <c r="C41" t="n">
-        <v>423.7460282925416</v>
+        <v>218.232578800872</v>
       </c>
       <c r="D41" t="n">
-        <v>221.5290353339871</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E41" t="n">
-        <v>19.31204237543255</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F41" t="n">
         <v>16.01558584231752</v>
@@ -7435,28 +7435,28 @@
         <v>780.4257730603301</v>
       </c>
       <c r="R41" t="n">
-        <v>625.9630212510962</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="S41" t="n">
-        <v>625.9630212510962</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="T41" t="n">
-        <v>625.9630212510962</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="U41" t="n">
-        <v>625.9630212510962</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="V41" t="n">
-        <v>625.9630212510962</v>
+        <v>578.2087801017756</v>
       </c>
       <c r="W41" t="n">
-        <v>625.9630212510962</v>
+        <v>578.2087801017756</v>
       </c>
       <c r="X41" t="n">
-        <v>625.9630212510962</v>
+        <v>578.2087801017756</v>
       </c>
       <c r="Y41" t="n">
-        <v>625.9630212510962</v>
+        <v>375.991787143221</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>488.3375583805593</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="C42" t="n">
-        <v>488.3375583805593</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="D42" t="n">
-        <v>488.3375583805593</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="E42" t="n">
-        <v>488.3375583805593</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="F42" t="n">
-        <v>312.5957925974038</v>
+        <v>18.38654745705682</v>
       </c>
       <c r="G42" t="n">
-        <v>150.4425901972942</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H42" t="n">
         <v>16.01558584231752</v>
@@ -7493,19 +7493,19 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K42" t="n">
-        <v>82.34666374468729</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L42" t="n">
-        <v>243.2049825215057</v>
+        <v>170.2215985022899</v>
       </c>
       <c r="M42" t="n">
-        <v>347.8378015316988</v>
+        <v>368.4144733009692</v>
       </c>
       <c r="N42" t="n">
-        <v>484.6350314517288</v>
+        <v>566.6073480996486</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0480675097801</v>
+        <v>753.0203841576999</v>
       </c>
       <c r="P42" t="n">
         <v>792.9921536562631</v>
@@ -7514,28 +7514,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R42" t="n">
-        <v>689.3936044783122</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S42" t="n">
-        <v>488.3375583805593</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T42" t="n">
-        <v>488.3375583805593</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U42" t="n">
-        <v>488.3375583805593</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V42" t="n">
-        <v>488.3375583805593</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="W42" t="n">
-        <v>488.3375583805593</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X42" t="n">
-        <v>488.3375583805593</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="Y42" t="n">
-        <v>488.3375583805593</v>
+        <v>194.1283132402123</v>
       </c>
     </row>
     <row r="43">
@@ -7584,19 +7584,19 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O43" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P43" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T43" t="n">
         <v>16.01558584231752</v>
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>578.2087801017756</v>
+        <v>218.232578800872</v>
       </c>
       <c r="C44" t="n">
-        <v>578.2087801017756</v>
+        <v>218.232578800872</v>
       </c>
       <c r="D44" t="n">
-        <v>445.2047770515828</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E44" t="n">
-        <v>445.2047770515828</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F44" t="n">
-        <v>445.2047770515828</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G44" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H44" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I44" t="n">
-        <v>40.77079113447374</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J44" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K44" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812789</v>
       </c>
       <c r="L44" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M44" t="n">
-        <v>383.8129092844021</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N44" t="n">
         <v>572.7990561059416</v>
@@ -7669,31 +7669,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U44" t="n">
-        <v>780.4257730603301</v>
+        <v>622.6665647179811</v>
       </c>
       <c r="V44" t="n">
-        <v>780.4257730603301</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="W44" t="n">
-        <v>780.4257730603301</v>
+        <v>218.232578800872</v>
       </c>
       <c r="X44" t="n">
-        <v>578.2087801017756</v>
+        <v>218.232578800872</v>
       </c>
       <c r="Y44" t="n">
-        <v>578.2087801017756</v>
+        <v>218.232578800872</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="C45" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="D45" t="n">
-        <v>16.01558584231752</v>
+        <v>222.507990663906</v>
       </c>
       <c r="E45" t="n">
-        <v>16.01558584231752</v>
+        <v>222.507990663906</v>
       </c>
       <c r="F45" t="n">
-        <v>16.01558584231752</v>
+        <v>222.507990663906</v>
       </c>
       <c r="G45" t="n">
-        <v>16.01558584231752</v>
+        <v>60.35478826379642</v>
       </c>
       <c r="H45" t="n">
         <v>16.01558584231752</v>
@@ -7730,19 +7730,19 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K45" t="n">
-        <v>36.55826251899472</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L45" t="n">
-        <v>197.4165812958131</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M45" t="n">
-        <v>395.6094560944924</v>
+        <v>375.0667794178153</v>
       </c>
       <c r="N45" t="n">
-        <v>593.8023308931718</v>
+        <v>573.2596542164946</v>
       </c>
       <c r="O45" t="n">
-        <v>678.835205969393</v>
+        <v>759.672690274546</v>
       </c>
       <c r="P45" t="n">
         <v>800.7792921158759</v>
@@ -7760,19 +7760,19 @@
         <v>800.7792921158759</v>
       </c>
       <c r="U45" t="n">
+        <v>800.7792921158759</v>
+      </c>
+      <c r="V45" t="n">
         <v>598.5622991573214</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>396.3453061987668</v>
       </c>
-      <c r="W45" t="n">
-        <v>194.1283132402123</v>
-      </c>
       <c r="X45" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K46" t="n">
-        <v>16.80092827599676</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L46" t="n">
         <v>16.01558584231752</v>
@@ -7821,37 +7821,37 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
   </sheetData>
@@ -8774,22 +8774,22 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>10.31989640267744</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>94.50510685705672</v>
+        <v>94.50510685705675</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>24.17140605957903</v>
       </c>
       <c r="O12" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R12" t="n">
         <v>11.83563415094341</v>
@@ -9014,10 +9014,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M15" t="n">
-        <v>12.85108230639719</v>
+        <v>12.85108230639742</v>
       </c>
       <c r="N15" t="n">
-        <v>70.4223163885614</v>
+        <v>70.42231638856151</v>
       </c>
       <c r="O15" t="n">
         <v>102.4042030119497</v>
@@ -9251,7 +9251,7 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M18" t="n">
-        <v>16.27230990468638</v>
+        <v>8.406513480835031</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.75429838746948</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>11.83563415094341</v>
@@ -9482,25 +9482,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>2.906168128722039</v>
       </c>
       <c r="L21" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>94.50510685705675</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>70.4223163885614</v>
       </c>
       <c r="O21" t="n">
-        <v>16.30560963572766</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R21" t="n">
         <v>11.83563415094341</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>1.759872832997956</v>
+        <v>2.906168128722039</v>
       </c>
       <c r="L24" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>94.50510685705675</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N24" t="n">
-        <v>70.42231638856143</v>
+        <v>70.4223163885614</v>
       </c>
       <c r="O24" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>1.146295295724052</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>46.75429838746948</v>
@@ -9962,16 +9962,16 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M27" t="n">
-        <v>94.50510685705675</v>
+        <v>83.27339869495864</v>
       </c>
       <c r="N27" t="n">
-        <v>70.42231638856143</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>1.146295295724052</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>46.75429838746948</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
         <v>96.41848977889939</v>
@@ -10202,16 +10202,16 @@
         <v>94.50510685705675</v>
       </c>
       <c r="N30" t="n">
-        <v>70.42231638856143</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>1.146295295724052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.75429838746948</v>
+        <v>51.32182128148247</v>
       </c>
       <c r="R30" t="n">
         <v>11.83563415094341</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>1.759872832997956</v>
+        <v>8.658541637386442</v>
       </c>
       <c r="L33" t="n">
-        <v>96.41848977889939</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>94.50510685705675</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>70.4223163885614</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>63.70281526043416</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10667,22 +10667,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>2.906168128722039</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
-        <v>94.50510685705672</v>
+        <v>16.27230990468614</v>
       </c>
       <c r="N36" t="n">
-        <v>70.4223163885614</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>46.75429838746948</v>
@@ -10904,16 +10904,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997956</v>
       </c>
       <c r="L39" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>75.40760227110729</v>
       </c>
       <c r="N39" t="n">
-        <v>8.406513480834832</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>102.4042030119497</v>
@@ -11141,22 +11141,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997956</v>
       </c>
       <c r="L42" t="n">
-        <v>96.41848977889939</v>
+        <v>89.69898865077212</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N42" t="n">
-        <v>8.406513480834832</v>
+        <v>70.4223163885614</v>
       </c>
       <c r="O42" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P42" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,7 +11299,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850267</v>
       </c>
       <c r="L44" t="n">
         <v>108.5919157831171</v>
@@ -11308,7 +11308,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7102003471157</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11378,22 +11378,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>22.51005129428806</v>
+        <v>1.759872832997956</v>
       </c>
       <c r="L45" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M45" t="n">
-        <v>94.50510685705672</v>
+        <v>94.50510685705675</v>
       </c>
       <c r="N45" t="n">
-        <v>70.4223163885614</v>
+        <v>70.42231638856143</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>82.80031984638366</v>
+        <v>1.146295295724052</v>
       </c>
       <c r="Q45" t="n">
         <v>46.75429838746948</v>
@@ -23269,19 +23269,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>247.3224706886879</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H11" t="n">
-        <v>140.2143329531761</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I11" t="n">
-        <v>18.2661761529165</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>152.9181242911416</v>
@@ -23314,16 +23314,16 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781289</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720541</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503244</v>
       </c>
       <c r="X11" t="n">
-        <v>348.8168793035129</v>
+        <v>192.6352630445874</v>
       </c>
       <c r="Y11" t="n">
         <v>377.9289763951821</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T12" t="n">
-        <v>27.9524499598644</v>
+        <v>193.3522072650034</v>
       </c>
       <c r="U12" t="n">
-        <v>49.42293565463191</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V12" t="n">
-        <v>196.2044913714394</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
         <v>283.2492567629311</v>
@@ -23454,13 +23454,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P13" t="n">
-        <v>32.1849883705259</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.7104335796887</v>
+        <v>95.59483899375844</v>
       </c>
       <c r="R13" t="n">
         <v>202.8351353702983</v>
@@ -23500,22 +23500,22 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>162.9501393843221</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>159.7637319073183</v>
       </c>
       <c r="F14" t="n">
-        <v>198.9515945444001</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H14" t="n">
-        <v>140.2143329531761</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I14" t="n">
-        <v>42.12939905796966</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J14" t="n">
         <v>24.50765323923466</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>152.9181242911416</v>
@@ -23551,7 +23551,7 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781283</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23563,7 +23563,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="15">
@@ -23585,19 +23585,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>150.2220106572349</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>47.21556637234436</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,10 +23633,10 @@
         <v>249.6177586836009</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120334</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396207</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23679,10 +23679,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K16" t="n">
-        <v>19.05178990139142</v>
+        <v>40.38989547797919</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.777489009342446</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T16" t="n">
-        <v>216.3554192360613</v>
+        <v>194.239824650131</v>
       </c>
       <c r="U16" t="n">
         <v>291.1974793176597</v>
@@ -23740,16 +23740,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>183.6269548123715</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>198.9515945444</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>221.082470670817</v>
+        <v>265.0956774408605</v>
       </c>
       <c r="H17" t="n">
-        <v>140.214332953176</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I17" t="n">
         <v>218.4609991818855</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>152.9181242911416</v>
@@ -23791,16 +23791,16 @@
         <v>248.7165713067819</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720541</v>
       </c>
       <c r="W17" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>148.6220562745439</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="18">
@@ -23867,16 +23867,16 @@
         <v>27.95244995986434</v>
       </c>
       <c r="U18" t="n">
-        <v>49.42293565463186</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V18" t="n">
-        <v>71.81898766406294</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396207</v>
       </c>
       <c r="X18" t="n">
-        <v>230.033063710963</v>
+        <v>52.55212619485354</v>
       </c>
       <c r="Y18" t="n">
         <v>242.8962664135933</v>
@@ -23931,7 +23931,7 @@
         <v>13.45597070859787</v>
       </c>
       <c r="P19" t="n">
-        <v>18.72901766192803</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q19" t="n">
         <v>117.7104335796887</v>
@@ -23943,7 +23943,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T19" t="n">
-        <v>216.3554192360613</v>
+        <v>194.239824650131</v>
       </c>
       <c r="U19" t="n">
         <v>291.1974793176597</v>
@@ -23977,22 +23977,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>159.7637319073183</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8638178670118</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H20" t="n">
         <v>340.4091559821451</v>
       </c>
       <c r="I20" t="n">
-        <v>218.4609991818855</v>
+        <v>18.2661761529165</v>
       </c>
       <c r="J20" t="n">
-        <v>24.50765323923466</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.24416127145082</v>
       </c>
       <c r="S20" t="n">
-        <v>14.48908307771802</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T20" t="n">
         <v>215.3895565962661</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781289</v>
       </c>
       <c r="V20" t="n">
-        <v>113.1096189720541</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24053,7 +24053,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,13 +24065,13 @@
         <v>160.5316703761085</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I21" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J21" t="n">
-        <v>35.79733752996914</v>
+        <v>19.56647040781754</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S21" t="n">
-        <v>88.75598653981859</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>228.1472729888334</v>
@@ -24113,7 +24113,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199399</v>
       </c>
       <c r="Y21" t="n">
         <v>242.8962664135933</v>
@@ -24174,7 +24174,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R22" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S22" t="n">
         <v>236.6308406326193</v>
@@ -24189,7 +24189,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W22" t="n">
-        <v>272.3702005604074</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X22" t="n">
         <v>217.7416213385031</v>
@@ -24220,7 +24220,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H23" t="n">
         <v>340.4091559821451</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.48908307771802</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T23" t="n">
-        <v>15.19473356729713</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U23" t="n">
         <v>48.52174827781289</v>
       </c>
       <c r="V23" t="n">
-        <v>289.8909661682489</v>
+        <v>113.1096189720541</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>345.553387335729</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
         <v>3.647604586270404</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24299,10 +24299,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>95.25417091944095</v>
+        <v>89.18692391416282</v>
       </c>
       <c r="H24" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>100.3110001810774</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T24" t="n">
         <v>228.1472729888334</v>
@@ -24347,7 +24347,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.3615045680942</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>133.4022964452395</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24457,7 +24457,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H26" t="n">
         <v>340.4091559821451</v>
@@ -24466,7 +24466,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J26" t="n">
-        <v>24.50765323923466</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>152.9181242911416</v>
       </c>
       <c r="S26" t="n">
-        <v>38.35230598277118</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T26" t="n">
-        <v>215.3895565962661</v>
+        <v>63.56560971158495</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781289</v>
       </c>
       <c r="V26" t="n">
-        <v>113.1096189720541</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>177.7341533662131</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S27" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T27" t="n">
-        <v>27.9524499598644</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V27" t="n">
         <v>49.1051021512034</v>
       </c>
       <c r="W27" t="n">
-        <v>83.05443373396213</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>178.0869672944236</v>
+        <v>29.83824068199399</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>66.56466628967752</v>
       </c>
     </row>
     <row r="28">
@@ -24654,13 +24654,13 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T28" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U28" t="n">
         <v>291.1974793176597</v>
       </c>
       <c r="V28" t="n">
-        <v>215.2459554903416</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
         <v>294.4857951463376</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.3615045680942</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>118.9369326142786</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24697,10 +24697,10 @@
         <v>421.2772936997861</v>
       </c>
       <c r="H29" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531761</v>
       </c>
       <c r="I29" t="n">
-        <v>18.2661761529165</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J29" t="n">
         <v>24.50765323923466</v>
@@ -24727,7 +24727,7 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R29" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>214.683906106687</v>
@@ -24739,13 +24739,13 @@
         <v>248.7165713067819</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720541</v>
       </c>
       <c r="W29" t="n">
-        <v>149.0601253553776</v>
+        <v>301.9782496465189</v>
       </c>
       <c r="X29" t="n">
-        <v>348.8168793035129</v>
+        <v>148.6220562745439</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24767,19 +24767,19 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>102.8397327880932</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J30" t="n">
         <v>35.79733752996914</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S30" t="n">
         <v>199.0454856367754</v>
@@ -24815,19 +24815,19 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>72.96832505625656</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462435</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.175320970127</v>
+        <v>153.0597263841968</v>
       </c>
       <c r="C31" t="n">
         <v>165.5867821959998</v>
@@ -24852,7 +24852,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>146.7136078779125</v>
+        <v>168.8292024638427</v>
       </c>
       <c r="H31" t="n">
         <v>163.9752151566217</v>
@@ -24928,19 +24928,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444001</v>
       </c>
       <c r="G32" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H32" t="n">
-        <v>208.7351929624541</v>
+        <v>164.0775558582293</v>
       </c>
       <c r="I32" t="n">
         <v>218.4609991818855</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R32" t="n">
         <v>152.9181242911416</v>
@@ -24970,7 +24970,7 @@
         <v>214.683906106687</v>
       </c>
       <c r="T32" t="n">
-        <v>15.19473356729713</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U32" t="n">
         <v>248.7165713067819</v>
@@ -24979,13 +24979,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>125.1969024503244</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>148.6220562745439</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>133.0827343114269</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J33" t="n">
         <v>35.79733752996914</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T33" t="n">
-        <v>27.9524499598644</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U33" t="n">
-        <v>173.5971587407625</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>83.05443373396213</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>29.83824068199399</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>110.4568589633705</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H34" t="n">
         <v>163.9752151566217</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P34" t="n">
-        <v>32.1849883705259</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q34" t="n">
         <v>117.7104335796887</v>
@@ -25165,7 +25165,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444001</v>
       </c>
       <c r="G35" t="n">
         <v>421.2772936997861</v>
@@ -25177,7 +25177,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J35" t="n">
-        <v>24.50765323923466</v>
+        <v>21.24416127145077</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>14.48908307771802</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T35" t="n">
-        <v>59.20794033734063</v>
+        <v>15.19473356729713</v>
       </c>
       <c r="U35" t="n">
-        <v>48.52174827781289</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V35" t="n">
-        <v>113.1096189720541</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>3.647604586270404</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25247,7 +25247,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>133.0827343114269</v>
@@ -25286,22 +25286,22 @@
         <v>199.0454856367754</v>
       </c>
       <c r="T36" t="n">
-        <v>228.1472729888334</v>
+        <v>184.2514625915692</v>
       </c>
       <c r="U36" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X36" t="n">
-        <v>41.51939793911259</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.70144338462435</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>163.9752151566217</v>
       </c>
       <c r="I37" t="n">
-        <v>133.4351016382187</v>
+        <v>155.5506962241489</v>
       </c>
       <c r="J37" t="n">
         <v>103.6341439005505</v>
@@ -25371,7 +25371,7 @@
         <v>291.1974793176597</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3615500762718</v>
+        <v>215.2459554903416</v>
       </c>
       <c r="W37" t="n">
         <v>294.4857951463376</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680942</v>
       </c>
       <c r="C38" t="n">
         <v>333.5971194742085</v>
@@ -25402,7 +25402,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>222.8148174494532</v>
       </c>
       <c r="G38" t="n">
         <v>421.2772936997861</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R38" t="n">
         <v>152.9181242911416</v>
       </c>
       <c r="S38" t="n">
-        <v>14.48908307771802</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T38" t="n">
-        <v>15.19473356729713</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U38" t="n">
         <v>48.52174827781289</v>
       </c>
       <c r="V38" t="n">
-        <v>157.1228257420976</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503244</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>3.647604586270404</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>160.5316703761085</v>
@@ -25490,7 +25490,7 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I39" t="n">
-        <v>99.25787970682985</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J39" t="n">
         <v>35.79733752996914</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>199.0454856367754</v>
+        <v>120.888914316591</v>
       </c>
       <c r="T39" t="n">
         <v>27.9524499598644</v>
@@ -25532,7 +25532,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.175320970127</v>
+        <v>153.0597263841968</v>
       </c>
       <c r="C40" t="n">
         <v>165.5867821959998</v>
@@ -25557,7 +25557,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>114.3161298179835</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
@@ -25630,16 +25630,16 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>133.4022964452395</v>
+        <v>177.415503215283</v>
       </c>
       <c r="D41" t="n">
         <v>118.9369326142786</v>
       </c>
       <c r="E41" t="n">
-        <v>159.7637319073183</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>395.8829256055852</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.2772936997861</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>152.9181242911416</v>
       </c>
       <c r="S41" t="n">
         <v>214.683906106687</v>
@@ -25687,7 +25687,7 @@
         <v>248.7165713067819</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720541</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>158.1844183775166</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I42" t="n">
         <v>100.3110001810774</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.11367294618842</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T42" t="n">
         <v>228.1472729888334</v>
@@ -25766,16 +25766,16 @@
         <v>249.6177586836009</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462435</v>
       </c>
     </row>
     <row r="43">
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P43" t="n">
         <v>40.84461224785825</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.0508097023563</v>
+        <v>117.7104335796887</v>
       </c>
       <c r="R43" t="n">
         <v>202.8351353702983</v>
@@ -25839,7 +25839,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T43" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U43" t="n">
         <v>291.1974793176597</v>
@@ -25870,7 +25870,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>187.4577926235568</v>
+        <v>118.9369326142786</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H44" t="n">
         <v>340.4091559821451</v>
       </c>
       <c r="I44" t="n">
-        <v>18.2661761529165</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R44" t="n">
         <v>152.9181242911416</v>
@@ -25921,16 +25921,16 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7165713067819</v>
+        <v>72.38497118286605</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720541</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503244</v>
       </c>
       <c r="X44" t="n">
-        <v>148.6220562745439</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -25949,7 +25949,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
@@ -25958,10 +25958,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>133.0827343114269</v>
+        <v>89.18692391416283</v>
       </c>
       <c r="I45" t="n">
         <v>100.3110001810774</v>
@@ -26000,7 +26000,7 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U45" t="n">
-        <v>49.42293565463191</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V45" t="n">
         <v>49.1051021512034</v>
@@ -26009,7 +26009,7 @@
         <v>83.05443373396213</v>
       </c>
       <c r="X45" t="n">
-        <v>53.70146358704716</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26049,10 +26049,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K46" t="n">
-        <v>32.50776060998929</v>
+        <v>40.38989547797919</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.777489009342446</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P46" t="n">
         <v>40.84461224785825</v>
@@ -26079,7 +26079,7 @@
         <v>216.3554192360613</v>
       </c>
       <c r="U46" t="n">
-        <v>291.1974793176597</v>
+        <v>269.0818847317294</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441304.75753884</v>
+        <v>441304.7575388401</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>441304.75753884</v>
+        <v>441304.7575388401</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>441304.75753884</v>
+        <v>441304.7575388401</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>441304.7575388401</v>
+        <v>441304.75753884</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>441304.75753884</v>
+        <v>441304.7575388401</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441304.7575388401</v>
+        <v>441304.75753884</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713195.7535049173</v>
+        <v>713195.7535049168</v>
       </c>
       <c r="C2" t="n">
-        <v>713195.753504917</v>
+        <v>713195.7535049169</v>
       </c>
       <c r="D2" t="n">
         <v>713195.753504917</v>
@@ -26331,19 +26331,19 @@
         <v>324725.2816894843</v>
       </c>
       <c r="H2" t="n">
+        <v>324725.2816894843</v>
+      </c>
+      <c r="I2" t="n">
+        <v>324725.2816894843</v>
+      </c>
+      <c r="J2" t="n">
         <v>324725.2816894842</v>
-      </c>
-      <c r="I2" t="n">
-        <v>324725.2816894844</v>
-      </c>
-      <c r="J2" t="n">
-        <v>324725.2816894843</v>
       </c>
       <c r="K2" t="n">
         <v>324725.2816894843</v>
       </c>
       <c r="L2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.281689484</v>
       </c>
       <c r="M2" t="n">
         <v>324725.2816894843</v>
@@ -26355,7 +26355,7 @@
         <v>324725.2816894843</v>
       </c>
       <c r="P2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894843</v>
       </c>
     </row>
     <row r="3">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498770.2391006363</v>
+        <v>498770.2391006362</v>
       </c>
       <c r="C4" t="n">
-        <v>498770.2391006363</v>
+        <v>498770.2391006362</v>
       </c>
       <c r="D4" t="n">
-        <v>498770.2391006363</v>
+        <v>498770.2391006362</v>
       </c>
       <c r="E4" t="n">
-        <v>8483.589994970012</v>
+        <v>8483.589994970011</v>
       </c>
       <c r="F4" t="n">
         <v>8483.589994970012</v>
       </c>
       <c r="G4" t="n">
-        <v>8483.589994970012</v>
+        <v>8483.589994970014</v>
       </c>
       <c r="H4" t="n">
         <v>8483.589994970011</v>
@@ -26453,13 +26453,13 @@
         <v>8483.589994970011</v>
       </c>
       <c r="N4" t="n">
-        <v>8483.589994970012</v>
+        <v>8483.589994970011</v>
       </c>
       <c r="O4" t="n">
-        <v>8483.589994970012</v>
+        <v>8483.589994970011</v>
       </c>
       <c r="P4" t="n">
-        <v>8483.589994970009</v>
+        <v>8483.589994970011</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>24714.27487147588</v>
       </c>
       <c r="F5" t="n">
-        <v>24714.27487147588</v>
+        <v>24714.27487147589</v>
       </c>
       <c r="G5" t="n">
         <v>24714.27487147589</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180797.914404281</v>
+        <v>180750.9698633478</v>
       </c>
       <c r="C6" t="n">
-        <v>180797.9144042807</v>
+        <v>180750.9698633479</v>
       </c>
       <c r="D6" t="n">
-        <v>180797.9144042807</v>
+        <v>180750.969863348</v>
       </c>
       <c r="E6" t="n">
-        <v>-230476.8848402875</v>
+        <v>-243472.8451084014</v>
       </c>
       <c r="F6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="G6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="H6" t="n">
-        <v>291527.4168230383</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="I6" t="n">
-        <v>291527.4168230385</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="J6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549244</v>
       </c>
       <c r="K6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="L6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549243</v>
       </c>
       <c r="M6" t="n">
-        <v>241638.0661449272</v>
+        <v>228642.1058768133</v>
       </c>
       <c r="N6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="O6" t="n">
-        <v>291527.4168230384</v>
+        <v>278531.4565549245</v>
       </c>
       <c r="P6" t="n">
-        <v>291527.4168230383</v>
+        <v>278531.4565549245</v>
       </c>
     </row>
   </sheetData>
@@ -35494,22 +35494,22 @@
         <v>67.00108879027249</v>
       </c>
       <c r="L12" t="n">
-        <v>76.38455690339262</v>
+        <v>162.4831502796146</v>
       </c>
       <c r="M12" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="N12" t="n">
-        <v>129.7725066404076</v>
+        <v>153.9439126999866</v>
       </c>
       <c r="O12" t="n">
-        <v>188.2959960182338</v>
+        <v>85.89179300628408</v>
       </c>
       <c r="P12" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M15" t="n">
-        <v>118.5407984783094</v>
+        <v>118.5407984783097</v>
       </c>
       <c r="N15" t="n">
         <v>200.194823028969</v>
@@ -35971,7 +35971,7 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M18" t="n">
-        <v>121.9620260765986</v>
+        <v>114.0962296527473</v>
       </c>
       <c r="N18" t="n">
         <v>129.7725066404076</v>
@@ -35983,7 +35983,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.865796423851293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>67.00108879027249</v>
+        <v>1.146295295724083</v>
       </c>
       <c r="L21" t="n">
         <v>162.4831502796146</v>
@@ -36211,16 +36211,16 @@
         <v>200.194823028969</v>
       </c>
       <c r="N21" t="n">
-        <v>129.7725066404076</v>
+        <v>200.194823028969</v>
       </c>
       <c r="O21" t="n">
-        <v>102.1974026420117</v>
+        <v>188.2959960182338</v>
       </c>
       <c r="P21" t="n">
-        <v>123.175844592407</v>
+        <v>40.37552474602339</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.146295295724083</v>
       </c>
       <c r="L24" t="n">
         <v>162.4831502796146</v>
@@ -36454,7 +36454,7 @@
         <v>188.2959960182338</v>
       </c>
       <c r="P24" t="n">
-        <v>41.52182004174744</v>
+        <v>40.37552474602339</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M27" t="n">
-        <v>200.194823028969</v>
+        <v>188.9631148668709</v>
       </c>
       <c r="N27" t="n">
-        <v>200.194823028969</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O27" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P27" t="n">
-        <v>41.52182004174744</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L30" t="n">
         <v>162.4831502796146</v>
@@ -36922,16 +36922,16 @@
         <v>200.194823028969</v>
       </c>
       <c r="N30" t="n">
-        <v>200.194823028969</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O30" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P30" t="n">
-        <v>41.52182004174744</v>
+        <v>40.37552474602339</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>4.567522894012999</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>6.898668804388485</v>
       </c>
       <c r="L33" t="n">
-        <v>162.4831502796146</v>
+        <v>66.06466050071518</v>
       </c>
       <c r="M33" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="N33" t="n">
-        <v>129.7725066404076</v>
+        <v>200.194823028969</v>
       </c>
       <c r="O33" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P33" t="n">
-        <v>104.0783400064576</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q33" t="n">
         <v>7.865796423851293</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.146295295724083</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L36" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M36" t="n">
-        <v>200.194823028969</v>
+        <v>121.9620260765984</v>
       </c>
       <c r="N36" t="n">
-        <v>200.194823028969</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O36" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P36" t="n">
-        <v>40.37552474602339</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>67.00108879027249</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M39" t="n">
-        <v>105.6897161719122</v>
+        <v>181.0973184430195</v>
       </c>
       <c r="N39" t="n">
-        <v>138.1790201212424</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O39" t="n">
         <v>188.2959960182338</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>67.00108879027249</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>162.4831502796146</v>
+        <v>155.7636491514873</v>
       </c>
       <c r="M42" t="n">
-        <v>105.6897161719122</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N42" t="n">
-        <v>138.1790201212424</v>
+        <v>200.194823028969</v>
       </c>
       <c r="O42" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P42" t="n">
-        <v>123.175844592407</v>
+        <v>40.37552474602339</v>
       </c>
       <c r="Q42" t="n">
         <v>7.865796423851293</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.60949922809147</v>
+        <v>56.60949922809129</v>
       </c>
       <c r="L44" t="n">
         <v>128.7808994408774</v>
@@ -38028,7 +38028,7 @@
         <v>186.1220492523287</v>
       </c>
       <c r="N44" t="n">
-        <v>190.8950977995349</v>
+        <v>190.8950977995351</v>
       </c>
       <c r="O44" t="n">
         <v>152.19173933471</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>20.7501784612901</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>162.4831502796146</v>
@@ -38110,10 +38110,10 @@
         <v>200.194823028969</v>
       </c>
       <c r="O45" t="n">
-        <v>85.89179300628408</v>
+        <v>188.2959960182338</v>
       </c>
       <c r="P45" t="n">
-        <v>123.175844592407</v>
+        <v>41.52182004174744</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
